--- a/Complement_Assay_Plots/20240319_C4d_1-100dilution.xlsx
+++ b/Complement_Assay_Plots/20240319_C4d_1-100dilution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Complement_Assay_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE7C2C-41E4-074F-8505-0B41B7F0A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B2D0B3-F7FA-384F-9E39-FF9B10B1D954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="11700" windowHeight="11800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15660" yWindow="3680" windowWidth="27160" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,10 +331,6 @@
     <t>Polymer</t>
   </si>
   <si>
-    <t>pDNA+
-H₂O</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -350,13 +346,16 @@
     <t>Stdev</t>
   </si>
   <si>
-    <t>N/P ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive </t>
+    <t>pDNA</t>
+  </si>
+  <si>
+    <t>N/P Ratio</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
 </sst>
 </file>
@@ -591,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -692,40 +691,46 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2476,7 +2481,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="50" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="7">
@@ -2537,7 +2542,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B30" s="43"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="11">
         <v>0.53</v>
       </c>
@@ -2596,7 +2601,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="7">
@@ -2640,7 +2645,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B32" s="43"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="11">
         <v>0.54700000000000004</v>
       </c>
@@ -2682,7 +2687,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="7">
@@ -2729,7 +2734,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B34" s="43"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="11">
         <v>0.53100000000000003</v>
       </c>
@@ -2788,7 +2793,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="50" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="7">
@@ -2849,7 +2854,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B36" s="43"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="11">
         <v>0.54800000000000004</v>
       </c>
@@ -2908,7 +2913,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="17">
@@ -2969,7 +2974,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B38" s="43"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="18">
         <v>0.56999999999999995</v>
       </c>
@@ -3028,7 +3033,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="7">
@@ -3072,7 +3077,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B40" s="43"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="11">
         <v>0.55000000000000004</v>
       </c>
@@ -3114,7 +3119,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="50" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="7">
@@ -3175,7 +3180,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B42" s="43"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="18">
         <v>0.56999999999999995</v>
       </c>
@@ -3217,7 +3222,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="50" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="17">
@@ -3278,7 +3283,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B44" s="43"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="18">
         <v>0.58799999999999997</v>
       </c>
@@ -5820,10 +5825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624EF8E0-D543-9F48-8ED6-B90E3F6605E1}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5840,17 +5845,17 @@
         <v>95</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="42">
         <v>0</v>
       </c>
       <c r="C2" s="30">
@@ -5859,17 +5864,17 @@
       <c r="D2" s="30">
         <v>0</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="42">
         <v>0</v>
       </c>
       <c r="C3" s="30">
@@ -5878,449 +5883,378 @@
       <c r="D3" s="30">
         <v>8.3792006934595251E-4</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="42">
         <v>0</v>
       </c>
       <c r="C4" s="30">
         <v>0.18841467027432704</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="52">
         <v>7.1223205894404588E-3</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="44">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="42">
         <v>0</v>
       </c>
       <c r="C5" s="30">
         <v>0.20806588588469968</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="52">
         <v>5.5861337956395786E-3</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="42">
         <v>5</v>
       </c>
       <c r="C6" s="30">
         <v>0.22830960045819917</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="52">
         <v>5.7257871405305642E-3</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="42">
         <v>7.5</v>
       </c>
       <c r="C7" s="30">
         <v>0.22060711393755061</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="52">
         <v>2.3741068631467936E-3</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>10</v>
       </c>
       <c r="C8" s="30">
         <v>0.20135089763592914</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="52">
         <v>9.2171207628053212E-3</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="42">
         <v>5</v>
       </c>
       <c r="C9" s="30">
         <v>0.23235834337289912</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="52">
         <v>2.234453518255867E-3</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="42">
         <v>7.5</v>
       </c>
       <c r="C10" s="30">
         <v>0.21803961843066777</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="52">
         <v>4.0499470018387183E-3</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="43">
         <v>10</v>
       </c>
       <c r="C11" s="30">
         <v>0.15839472280923508</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="52">
         <v>2.6673788874179021E-2</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="44">
+      <c r="A12" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="42">
         <v>5</v>
       </c>
       <c r="C12" s="40">
         <v>0.23749333438666487</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="53">
         <v>6.9826672445495322E-3</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="44">
+      <c r="A13" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="42">
         <v>7.5</v>
       </c>
       <c r="C13" s="30">
         <v>0.22692710287756998</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="52">
         <v>4.566664377935347E-2</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="45">
+      <c r="A14" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="43">
         <v>10</v>
       </c>
       <c r="C14" s="30">
         <v>0.19108091560839768</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="52">
         <v>5.3068271058576075E-3</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="44">
+      <c r="A15" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="42">
         <v>5</v>
       </c>
       <c r="C15" s="30">
         <v>0.24450457211699883</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="52">
         <v>8.5188540383503725E-3</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="44">
+      <c r="A16" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="42">
         <v>7.5</v>
       </c>
       <c r="C16" s="30">
         <v>0.20579463985938024</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="52">
         <v>8.5188540383503934E-3</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="45">
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="43">
         <v>10</v>
       </c>
       <c r="C17" s="30">
         <v>0.21458337447909465</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="52">
         <v>7.2619739343314643E-3</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="44">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="42">
         <v>5</v>
       </c>
       <c r="C18" s="30">
         <v>0.22426085754349928</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="52">
         <v>5.5861337956396176E-4</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="44">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="42">
         <v>7.5</v>
       </c>
       <c r="C19" s="30">
         <v>0.18683467303932219</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="52">
         <v>1.5361867938008802E-3</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="45">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="43">
         <v>10</v>
       </c>
       <c r="C20" s="30">
         <v>0.21458337447909465</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="52">
         <v>1.3965334489098946E-3</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="48"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G26" s="52"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G27" s="49"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G28" s="52"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G29" s="52"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G30" s="52"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G31" s="52"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G32" s="52"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-    </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-    </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-    </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="31"/>
+      <c r="B21" s="45"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="31"/>
+      <c r="B22" s="45"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="31"/>
+      <c r="B23" s="44"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="31"/>
+      <c r="B24" s="44"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="31"/>
+      <c r="B25" s="44"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G32" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Complement_Assay_Plots/20240319_C4d_1-100dilution.xlsx
+++ b/Complement_Assay_Plots/20240319_C4d_1-100dilution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Complement_Assay_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B2D0B3-F7FA-384F-9E39-FF9B10B1D954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE48D3B-3994-6D46-9B96-96FA6CD88EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="3680" windowWidth="27160" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="8660" windowWidth="27260" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -414,6 +414,19 @@
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -590,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -703,10 +716,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,20 +726,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2481,7 +2501,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="7">
@@ -2542,7 +2562,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B30" s="51"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="11">
         <v>0.53</v>
       </c>
@@ -2601,7 +2621,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="7">
@@ -2645,7 +2665,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B32" s="51"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="11">
         <v>0.54700000000000004</v>
       </c>
@@ -2687,7 +2707,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="7">
@@ -2734,7 +2754,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B34" s="51"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="11">
         <v>0.53100000000000003</v>
       </c>
@@ -2793,7 +2813,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="48" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="7">
@@ -2854,7 +2874,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B36" s="51"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="11">
         <v>0.54800000000000004</v>
       </c>
@@ -2913,7 +2933,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="17">
@@ -2974,7 +2994,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B38" s="51"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="18">
         <v>0.56999999999999995</v>
       </c>
@@ -3033,7 +3053,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="7">
@@ -3077,7 +3097,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B40" s="51"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="11">
         <v>0.55000000000000004</v>
       </c>
@@ -3119,7 +3139,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="7">
@@ -3180,7 +3200,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B42" s="51"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="18">
         <v>0.56999999999999995</v>
       </c>
@@ -3222,7 +3242,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="17">
@@ -3283,7 +3303,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B44" s="51"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="18">
         <v>0.58799999999999997</v>
       </c>
@@ -5825,10 +5845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624EF8E0-D543-9F48-8ED6-B90E3F6605E1}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5837,7 +5857,7 @@
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
         <v>88</v>
       </c>
@@ -5851,410 +5871,1110 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="42">
         <v>0</v>
       </c>
-      <c r="C2" s="30">
-        <v>3.6142436750735689E-2</v>
-      </c>
-      <c r="D2" s="30">
-        <v>0</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
+      <c r="C2" s="50">
+        <v>47.804794999999999</v>
+      </c>
+      <c r="D2" s="61">
+        <v>0.90774832999999999</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="42">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
-        <v>0.19720340489404145</v>
-      </c>
-      <c r="D3" s="30">
-        <v>8.3792006934595251E-4</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="C3" s="50">
+        <v>197.20339999999999</v>
+      </c>
+      <c r="D3" s="61">
+        <v>0.83792153599999997</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="42">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
-        <v>0.18841467027432704</v>
-      </c>
-      <c r="D4" s="52">
-        <v>7.1223205894404588E-3</v>
-      </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="C4" s="50">
+        <v>238.54005000000001</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0.41896076799999998</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="54"/>
       <c r="I4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="42">
         <v>0</v>
       </c>
-      <c r="C5" s="30">
-        <v>0.20806588588469968</v>
-      </c>
-      <c r="D5" s="52">
-        <v>5.5861337956395786E-3</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="50">
+        <v>208.0659</v>
+      </c>
+      <c r="D5" s="61">
+        <v>5.586143571</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="54"/>
       <c r="I5" s="54"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="48" t="s">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="42">
         <v>5</v>
       </c>
-      <c r="C6" s="30">
-        <v>0.22830960045819917</v>
-      </c>
-      <c r="D6" s="52">
-        <v>5.7257871405305642E-3</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="C6" s="50">
+        <v>228.30959999999999</v>
+      </c>
+      <c r="D6" s="61">
+        <v>5.7257264499999998</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="42">
         <v>7.5</v>
       </c>
-      <c r="C7" s="30">
-        <v>0.22060711393755061</v>
-      </c>
-      <c r="D7" s="52">
-        <v>2.3741068631467936E-3</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="C7" s="50">
+        <v>220.60714999999999</v>
+      </c>
+      <c r="D7" s="61">
+        <v>2.3741110179999998</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="43">
         <v>10</v>
       </c>
-      <c r="C8" s="30">
-        <v>0.20135089763592914</v>
-      </c>
-      <c r="D8" s="52">
-        <v>9.2171207628053212E-3</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
+      <c r="C8" s="50">
+        <v>201.3509</v>
+      </c>
+      <c r="D8" s="61">
+        <v>9.2171368929999993</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="42">
         <v>5</v>
       </c>
-      <c r="C9" s="30">
-        <v>0.23235834337289912</v>
-      </c>
-      <c r="D9" s="52">
-        <v>2.234453518255867E-3</v>
-      </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="48" t="s">
+      <c r="C9" s="50">
+        <v>232.35835</v>
+      </c>
+      <c r="D9" s="61">
+        <v>2.2343867180000001</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="42">
         <v>7.5</v>
       </c>
-      <c r="C10" s="30">
-        <v>0.21803961843066777</v>
-      </c>
-      <c r="D10" s="52">
-        <v>4.0499470018387183E-3</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="48" t="s">
+      <c r="C10" s="50">
+        <v>218.03964999999999</v>
+      </c>
+      <c r="D10" s="61">
+        <v>4.0499540889999999</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="43">
         <v>10</v>
       </c>
-      <c r="C11" s="30">
-        <v>0.15839472280923508</v>
-      </c>
-      <c r="D11" s="52">
-        <v>2.6673788874179021E-2</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="48" t="s">
+      <c r="C11" s="50">
+        <v>158.3947</v>
+      </c>
+      <c r="D11" s="61">
+        <v>26.67376484</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="42">
         <v>5</v>
       </c>
-      <c r="C12" s="40">
-        <v>0.23749333438666487</v>
-      </c>
-      <c r="D12" s="53">
-        <v>6.9826672445495322E-3</v>
-      </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
+      <c r="C12" s="50">
+        <v>237.4933</v>
+      </c>
+      <c r="D12" s="61">
+        <v>6.9826794640000003</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="42">
         <v>7.5</v>
       </c>
-      <c r="C13" s="30">
-        <v>0.22692710287756998</v>
-      </c>
-      <c r="D13" s="52">
-        <v>4.566664377935347E-2</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
+      <c r="C13" s="50">
+        <v>226.9271</v>
+      </c>
+      <c r="D13" s="61">
+        <v>45.666652990000003</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="43">
         <v>10</v>
       </c>
-      <c r="C14" s="30">
-        <v>0.19108091560839768</v>
-      </c>
-      <c r="D14" s="52">
-        <v>5.3068271058576075E-3</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
+      <c r="C14" s="50">
+        <v>191.08090000000001</v>
+      </c>
+      <c r="D14" s="61">
+        <v>5.3068363930000002</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="42">
         <v>5</v>
       </c>
-      <c r="C15" s="30">
-        <v>0.24450457211699883</v>
-      </c>
-      <c r="D15" s="52">
-        <v>8.5188540383503725E-3</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="48" t="s">
+      <c r="C15" s="50">
+        <v>244.50454999999999</v>
+      </c>
+      <c r="D15" s="61">
+        <v>8.5188689459999996</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="42">
         <v>7.5</v>
       </c>
-      <c r="C16" s="30">
-        <v>0.20579463985938024</v>
-      </c>
-      <c r="D16" s="52">
-        <v>8.5188540383503934E-3</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="48" t="s">
+      <c r="C16" s="50">
+        <v>205.79464999999999</v>
+      </c>
+      <c r="D16" s="61">
+        <v>8.5188689459999996</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="43">
         <v>10</v>
       </c>
-      <c r="C17" s="30">
-        <v>0.21458337447909465</v>
-      </c>
-      <c r="D17" s="52">
-        <v>7.2619739343314643E-3</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="C17" s="50">
+        <v>214.58340000000001</v>
+      </c>
+      <c r="D17" s="61">
+        <v>7.2619866430000002</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="42">
         <v>5</v>
       </c>
-      <c r="C18" s="30">
-        <v>0.22426085754349928</v>
-      </c>
-      <c r="D18" s="52">
-        <v>5.5861337956396176E-4</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="48" t="s">
+      <c r="C18" s="50">
+        <v>224.26089999999999</v>
+      </c>
+      <c r="D18" s="61">
+        <v>0.55861435699999995</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="42">
         <v>7.5</v>
       </c>
-      <c r="C19" s="30">
-        <v>0.18683467303932219</v>
-      </c>
-      <c r="D19" s="52">
-        <v>1.5361867938008802E-3</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="C19" s="50">
+        <v>186.83465000000001</v>
+      </c>
+      <c r="D19" s="61">
+        <v>1.5361894819999999</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="43">
         <v>10</v>
       </c>
-      <c r="C20" s="30">
-        <v>0.21458337447909465</v>
-      </c>
-      <c r="D20" s="52">
-        <v>1.3965334489098946E-3</v>
-      </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="50">
+        <v>214.58340000000001</v>
+      </c>
+      <c r="D20" s="61">
+        <v>1.396535893</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="45"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E21" s="51"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="45"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E22" s="51"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="44"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E23" s="51"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="44"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E24" s="51"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="44"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G32" s="47"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E26" s="51"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E27" s="51"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E28" s="51"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E29" s="51"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+    </row>
+    <row r="33" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+    </row>
+    <row r="34" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+    </row>
+    <row r="35" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+    </row>
+    <row r="36" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+    </row>
+    <row r="37" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+    </row>
+    <row r="38" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+    </row>
+    <row r="39" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+    </row>
+    <row r="40" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+    </row>
+    <row r="41" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+    </row>
+    <row r="42" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+    </row>
+    <row r="43" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+    </row>
+    <row r="44" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+    </row>
+    <row r="45" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+    </row>
+    <row r="46" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J46" s="57"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+    </row>
+    <row r="47" spans="5:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="J47" s="57"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.15">
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+    </row>
+    <row r="49" spans="10:21" x14ac:dyDescent="0.15">
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+    </row>
+    <row r="50" spans="10:21" x14ac:dyDescent="0.15">
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+    </row>
+    <row r="51" spans="10:21" x14ac:dyDescent="0.15">
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+    </row>
+    <row r="52" spans="10:21" x14ac:dyDescent="0.15">
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+    </row>
+    <row r="53" spans="10:21" x14ac:dyDescent="0.15">
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+    </row>
+    <row r="54" spans="10:21" x14ac:dyDescent="0.15">
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
